--- a/classifier stats.xlsx
+++ b/classifier stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis\EmotionalArtGeneration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6033FAE1-95BD-498E-A97A-C52343136455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075F9E71-2FAE-49F0-BC6F-BB66676FF089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E0A16D06-83E2-4660-8622-E33D3A4B7978}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>epoch</t>
   </si>
@@ -75,6 +75,87 @@
   </si>
   <si>
     <t>modo=0.8</t>
+  </si>
+  <si>
+    <t>Emotype before modo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    precision    recall  f1-score   support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    negative       0.74      0.76      0.75       372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    positive       0.77      0.76      0.77       412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.76       784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.76      0.76      0.76       784</t>
+  </si>
+  <si>
+    <t>weighted avg       0.76      0.76      0.76       784</t>
+  </si>
+  <si>
+    <t>focalloss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            precision    recall  f1-score   support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    negative       0.70      0.81      0.75       372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    positive       0.80      0.69      0.74       412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.75       784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.75      0.75      0.75       784</t>
+  </si>
+  <si>
+    <t>weighted avg       0.75      0.75      0.75       784</t>
+  </si>
+  <si>
+    <t>Art2 emotype before modo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             precision    recall  f1-score   support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    negative       0.59      0.64      0.61       942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    positive       0.54      0.50      0.52       814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.57      1756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.57      0.57      0.57      1756</t>
+  </si>
+  <si>
+    <t>weighted avg       0.57      0.57      0.57      1756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    negative       0.49      0.40      0.44       616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    positive       0.52      0.61      0.56       653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.51      1269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.50      0.50      0.50      1269</t>
+  </si>
+  <si>
+    <t>weighted avg       0.50      0.51      0.50      1269</t>
+  </si>
+  <si>
+    <t>art2 emotype after mode</t>
   </si>
 </sst>
 </file>
@@ -141,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -160,6 +241,9 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -284,6 +368,250 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="5934075" y="342900"/>
+          <a:ext cx="2647950" cy="2800350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E17D324-2867-74AF-3160-EAA5062892CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8991600" y="361950"/>
+          <a:ext cx="2647950" cy="2800350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80C4D9C3-EBC9-DC41-B702-D0C53F8C83C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14097000" y="400050"/>
+          <a:ext cx="2647950" cy="2800350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54E2882B-B9D6-AD67-9B98-DE139F4349D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11725275" y="6029325"/>
+          <a:ext cx="2647950" cy="2800350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B55C36D9-001D-0B53-DFA7-1E676C1E535E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6115050" y="5943600"/>
           <a:ext cx="2647950" cy="2800350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1171,10 +1499,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA79D151-D657-4AE5-82E7-3758F99CFD18}">
-  <dimension ref="A1:M1834"/>
+  <dimension ref="A1:Z1834"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView tabSelected="1" topLeftCell="F25" workbookViewId="0">
+      <selection activeCell="T51" sqref="T51:AA58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,7 +1635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1315,7 +1643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1331,8 +1659,23 @@
       <c r="M18">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P18" t="s">
+        <v>12</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="X18" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -1340,71 +1683,111 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="X20" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P21" s="8"/>
+      <c r="X21" s="8"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="X22" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="X23" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P24" s="8"/>
+      <c r="X24" s="8"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X25" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="X26" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X27" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1412,7 +1795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>7</v>
       </c>
@@ -1420,7 +1803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0</v>
       </c>
@@ -1428,7 +1811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6</v>
       </c>
@@ -1436,7 +1819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1444,7 +1827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1452,7 +1835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1460,7 +1843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>7</v>
       </c>
@@ -1468,7 +1851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -1476,7 +1859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -1484,7 +1867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>7</v>
       </c>
@@ -1492,7 +1875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -1500,7 +1883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1508,7 +1891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -1516,7 +1899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -1524,7 +1907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -1532,7 +1915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>7</v>
       </c>
@@ -1540,7 +1923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -1548,7 +1931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>8</v>
       </c>
@@ -1556,23 +1939,35 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3</v>
       </c>
       <c r="B47">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="K47" t="s">
+        <v>26</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
       <c r="B48">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="T48" t="s">
+        <v>38</v>
+      </c>
+      <c r="V48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>7</v>
       </c>
@@ -1580,7 +1975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -1588,71 +1983,111 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3</v>
       </c>
       <c r="B51">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="K51" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="T51" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
       <c r="B52">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="K52" s="8"/>
+      <c r="T52" s="8"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>6</v>
       </c>
       <c r="B53">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="K53" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="T53" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
       <c r="B54">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="K54" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="T54" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="K55" s="8"/>
+      <c r="T55" s="8"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="K56" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="T56" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>
       <c r="B57">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="K57" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="T57" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3</v>
       </c>
       <c r="B58">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="K58" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T58" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3</v>
       </c>
@@ -1660,7 +2095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2</v>
       </c>
@@ -1668,7 +2103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2</v>
       </c>
@@ -1676,7 +2111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3</v>
       </c>
@@ -1684,7 +2119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>3</v>
       </c>
@@ -1692,7 +2127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>3</v>
       </c>
@@ -15862,6 +16297,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/classifier stats.xlsx
+++ b/classifier stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis\EmotionalArtGeneration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075F9E71-2FAE-49F0-BC6F-BB66676FF089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF166857-EC80-4067-8661-064FFF65AEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E0A16D06-83E2-4660-8622-E33D3A4B7978}"/>
   </bookViews>
@@ -125,21 +125,6 @@
     <t xml:space="preserve">             precision    recall  f1-score   support</t>
   </si>
   <si>
-    <t xml:space="preserve">    negative       0.59      0.64      0.61       942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    positive       0.54      0.50      0.52       814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    accuracy                           0.57      1756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   macro avg       0.57      0.57      0.57      1756</t>
-  </si>
-  <si>
-    <t>weighted avg       0.57      0.57      0.57      1756</t>
-  </si>
-  <si>
     <t xml:space="preserve">    negative       0.49      0.40      0.44       616</t>
   </si>
   <si>
@@ -156,6 +141,21 @@
   </si>
   <si>
     <t>art2 emotype after mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    negative       0.56      0.65      0.60       830</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    positive       0.57      0.48      0.53       808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.57      1638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.57      0.57      0.56      1638</t>
+  </si>
+  <si>
+    <t>weighted avg       0.57      0.57      0.57      1638</t>
   </si>
 </sst>
 </file>
@@ -573,22 +573,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
+        <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B55C36D9-001D-0B53-DFA7-1E676C1E535E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65868514-7719-C753-4C22-E6E0537CE98F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -611,7 +611,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6115050" y="5943600"/>
+          <a:off x="6372225" y="5962650"/>
           <a:ext cx="2647950" cy="2800350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1501,8 +1501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA79D151-D657-4AE5-82E7-3758F99CFD18}">
   <dimension ref="A1:Z1834"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F25" workbookViewId="0">
-      <selection activeCell="T51" sqref="T51:AA58"/>
+    <sheetView tabSelected="1" topLeftCell="F28" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51:K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1961,7 +1961,7 @@
         <v>3</v>
       </c>
       <c r="T48" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="V48">
         <v>1</v>
@@ -2015,10 +2015,10 @@
         <v>6</v>
       </c>
       <c r="K53" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="T53" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="T53" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
@@ -2029,10 +2029,10 @@
         <v>3</v>
       </c>
       <c r="K54" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T54" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="T54" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
@@ -2053,10 +2053,10 @@
         <v>0</v>
       </c>
       <c r="K56" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T56" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="T56" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
@@ -2067,10 +2067,10 @@
         <v>3</v>
       </c>
       <c r="K57" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T57" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="T57" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
@@ -2081,10 +2081,10 @@
         <v>2</v>
       </c>
       <c r="K58" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="T58" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="T58" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">

--- a/classifier stats.xlsx
+++ b/classifier stats.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis\EmotionalArtGeneration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF166857-EC80-4067-8661-064FFF65AEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBE995E-E002-4810-A3A8-D453A92A5B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E0A16D06-83E2-4660-8622-E33D3A4B7978}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{E0A16D06-83E2-4660-8622-E33D3A4B7978}"/>
   </bookViews>
   <sheets>
     <sheet name="def loss" sheetId="1" r:id="rId1"/>
     <sheet name="ranger resnet34_deeper" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
     <sheet name="confusion_matrix" sheetId="4" r:id="rId4"/>
+    <sheet name="transformer" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>epoch</t>
   </si>
@@ -157,12 +158,36 @@
   <si>
     <t>weighted avg       0.57      0.57      0.57      1638</t>
   </si>
+  <si>
+    <t>vit-16</t>
+  </si>
+  <si>
+    <t>crossentrophy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              precision    recall  f1-score   support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    negative       0.72      0.83      0.77       362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    positive       0.81      0.68      0.74       371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.76       733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.76      0.76      0.75       733</t>
+  </si>
+  <si>
+    <t>weighted avg       0.76      0.76      0.75       733</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +210,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="3"/>
@@ -222,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -244,6 +275,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -634,6 +668,72 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C44110E-69B4-3264-B0E3-7439257B1066}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="190500"/>
+          <a:ext cx="2647950" cy="2800350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1501,7 +1601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA79D151-D657-4AE5-82E7-3758F99CFD18}">
   <dimension ref="A1:Z1834"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K51" sqref="K51:K58"/>
     </sheetView>
   </sheetViews>
@@ -16300,4 +16400,65 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D24600-6524-494E-8E43-5FF584477608}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/classifier stats.xlsx
+++ b/classifier stats.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis\EmotionalArtGeneration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBE995E-E002-4810-A3A8-D453A92A5B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5138A5B9-B6B2-47E4-AF47-C56786A21831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{E0A16D06-83E2-4660-8622-E33D3A4B7978}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E0A16D06-83E2-4660-8622-E33D3A4B7978}"/>
   </bookViews>
   <sheets>
     <sheet name="def loss" sheetId="1" r:id="rId1"/>
     <sheet name="ranger resnet34_deeper" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="confusion_matrix" sheetId="4" r:id="rId4"/>
-    <sheet name="transformer" sheetId="5" r:id="rId5"/>
+    <sheet name="confusion_matrix" sheetId="4" r:id="rId3"/>
+    <sheet name="transformer" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
   <si>
     <t>epoch</t>
   </si>
@@ -79,24 +78,6 @@
   </si>
   <si>
     <t>Emotype before modo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    precision    recall  f1-score   support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    negative       0.74      0.76      0.75       372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    positive       0.77      0.76      0.77       412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    accuracy                           0.76       784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   macro avg       0.76      0.76      0.76       784</t>
-  </si>
-  <si>
-    <t>weighted avg       0.76      0.76      0.76       784</t>
   </si>
   <si>
     <t>focalloss</t>
@@ -181,6 +162,60 @@
   </si>
   <si>
     <t>weighted avg       0.76      0.76      0.75       733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    negative       0.71      0.83      0.77       356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    positive       0.81      0.69      0.74       377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.75       733</t>
+  </si>
+  <si>
+    <t>weighted avg       0.76      0.75      0.75       733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        precision    recall  f1-score   support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    negative       0.78      0.92      0.85       364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    positive       0.91      0.75      0.82       369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.83       733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.85      0.84      0.83       733</t>
+  </si>
+  <si>
+    <t>weighted avg       0.85      0.83      0.83       733</t>
+  </si>
+  <si>
+    <t>swin-small-patch4-window7-224</t>
+  </si>
+  <si>
+    <t>valley</t>
+  </si>
+  <si>
+    <t>slide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    negative       0.79      0.85      0.82       364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    positive       0.84      0.78      0.81       369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.82       733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.82      0.82      0.82       733</t>
+  </si>
+  <si>
+    <t>weighted avg       0.82      0.82      0.82       733</t>
   </si>
 </sst>
 </file>
@@ -423,67 +458,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E17D324-2867-74AF-3160-EAA5062892CB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8991600" y="361950"/>
-          <a:ext cx="2647950" cy="2800350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -509,7 +483,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -570,7 +544,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -631,6 +605,67 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6372225" y="5962650"/>
+          <a:ext cx="2647950" cy="2800350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1205FF4A-A95A-027D-E85A-B0864A3A499C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -645,7 +680,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6372225" y="5962650"/>
+          <a:off x="9182100" y="304800"/>
           <a:ext cx="2647950" cy="2800350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -712,6 +747,128 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="190500"/>
+          <a:ext cx="2647950" cy="2800350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD6291A-83CD-1339-14DF-9D8690A9F1DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4876800" y="171450"/>
+          <a:ext cx="2647950" cy="2800350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D94D3998-DDF2-510D-69B3-1A6D8B71D6B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10363200" y="190500"/>
           <a:ext cx="2647950" cy="2800350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1586,23 +1743,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436B9405-D6E9-4DDC-9AE7-892354FD4C93}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA79D151-D657-4AE5-82E7-3758F99CFD18}">
   <dimension ref="A1:Z1834"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K51" sqref="K51:K58"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1769,7 +1914,7 @@
         <v>12</v>
       </c>
       <c r="Y18" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Z18">
         <v>1</v>
@@ -1790,11 +1935,12 @@
       <c r="B20">
         <v>3</v>
       </c>
-      <c r="R20" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="P20" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="R20" s="7"/>
       <c r="X20" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
@@ -1814,11 +1960,11 @@
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>14</v>
+      <c r="P22" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="X22" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
@@ -1828,11 +1974,11 @@
       <c r="B23">
         <v>3</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>15</v>
+      <c r="P23" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="X23" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -1852,11 +1998,11 @@
       <c r="B25">
         <v>3</v>
       </c>
-      <c r="P25" s="7" t="s">
-        <v>16</v>
+      <c r="P25" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="X25" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
@@ -1866,11 +2012,11 @@
       <c r="B26">
         <v>3</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>17</v>
+      <c r="P26" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="X26" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
@@ -1880,11 +2026,11 @@
       <c r="B27">
         <v>0</v>
       </c>
-      <c r="P27" s="7" t="s">
-        <v>18</v>
+      <c r="P27" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="X27" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
@@ -2047,7 +2193,7 @@
         <v>3</v>
       </c>
       <c r="K47" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M47">
         <v>1</v>
@@ -2061,7 +2207,7 @@
         <v>3</v>
       </c>
       <c r="T48" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="V48">
         <v>1</v>
@@ -2091,10 +2237,10 @@
         <v>3</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="T51" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
@@ -2115,10 +2261,10 @@
         <v>6</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="T53" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
@@ -2129,10 +2275,10 @@
         <v>3</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="T54" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
@@ -2153,10 +2299,10 @@
         <v>0</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="T56" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
@@ -2167,10 +2313,10 @@
         <v>3</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="T57" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
@@ -2181,10 +2327,10 @@
         <v>2</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="T58" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
@@ -16402,58 +16548,110 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D24600-6524-494E-8E43-5FF584477608}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A24"/>
+      <selection activeCell="R17" sqref="R17:R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="R18" s="8"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="R20" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="R21" s="8"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="R23" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>46</v>
+      <c r="I24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R24" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/classifier stats.xlsx
+++ b/classifier stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis\EmotionalArtGeneration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5138A5B9-B6B2-47E4-AF47-C56786A21831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06243267-1680-4A3F-BA22-88CB718C4A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E0A16D06-83E2-4660-8622-E33D3A4B7978}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
   <si>
     <t>epoch</t>
   </si>
@@ -216,6 +216,21 @@
   </si>
   <si>
     <t>weighted avg       0.82      0.82      0.82       733</t>
+  </si>
+  <si>
+    <t>swinv2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    negative       0.84      0.82      0.83       371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    positive       0.82      0.84      0.83       362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.83      0.83      0.83       733</t>
+  </si>
+  <si>
+    <t>weighted avg       0.83      0.83      0.83       733</t>
   </si>
 </sst>
 </file>
@@ -888,6 +903,67 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8F9AD8A-A438-4491-CBB9-BE70EF83B004}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="5143500"/>
+          <a:ext cx="2647950" cy="2800350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -16550,10 +16626,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D24600-6524-494E-8E43-5FF584477608}">
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17:R24"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16654,6 +16730,50 @@
         <v>58</v>
       </c>
     </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/classifier stats.xlsx
+++ b/classifier stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis\EmotionalArtGeneration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06243267-1680-4A3F-BA22-88CB718C4A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC70A86C-E3EE-41FC-BC43-E1A4031283EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E0A16D06-83E2-4660-8622-E33D3A4B7978}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
   <si>
     <t>epoch</t>
   </si>
@@ -231,6 +231,24 @@
   </si>
   <si>
     <t>weighted avg       0.83      0.83      0.83       733</t>
+  </si>
+  <si>
+    <t>unbalanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    negative       0.67      0.34      0.45       379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    positive       0.92      0.98      0.95      2969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.91      3348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.80      0.66      0.70      3348</t>
+  </si>
+  <si>
+    <t>weighted avg       0.89      0.91      0.89      3348</t>
   </si>
 </sst>
 </file>
@@ -964,6 +982,67 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23E99865-1FD4-3F74-9F9F-EC17FE49D115}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4876800" y="5143500"/>
+          <a:ext cx="2647950" cy="2800350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -16628,8 +16707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D24600-6524-494E-8E43-5FF584477608}">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:A50"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43:I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16737,41 +16816,70 @@
       <c r="B27" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+      <c r="K27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I43" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I44" s="8"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I45" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I46" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I47" s="8"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I48" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I49" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>63</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/classifier stats.xlsx
+++ b/classifier stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis\EmotionalArtGeneration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC70A86C-E3EE-41FC-BC43-E1A4031283EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03558F63-773E-42EA-A7EA-ECD668D1D902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E0A16D06-83E2-4660-8622-E33D3A4B7978}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
   <si>
     <t>epoch</t>
   </si>
@@ -250,6 +250,21 @@
   <si>
     <t>weighted avg       0.89      0.91      0.89      3348</t>
   </si>
+  <si>
+    <t xml:space="preserve">    negative       0.69      0.63      0.66       379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    positive       0.95      0.96      0.96      2969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.93      3348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.82      0.80      0.81      3348</t>
+  </si>
+  <si>
+    <t>weighted avg       0.92      0.93      0.92      3348</t>
+  </si>
 </sst>
 </file>
 
@@ -321,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -348,6 +363,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1043,6 +1059,67 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DFE4EDA-FA4B-68C7-F4B6-FB321B9C1216}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9753600" y="5143500"/>
+          <a:ext cx="2647950" cy="2800350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1902,7 +1979,7 @@
   <dimension ref="A1:Z1834"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16708,7 +16785,7 @@
   <dimension ref="A1:S50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43:I50"/>
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16733,7 +16810,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>35</v>
       </c>
@@ -16744,12 +16821,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="I18" s="8"/>
       <c r="R18" s="8"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>36</v>
       </c>
@@ -16760,7 +16837,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>37</v>
       </c>
@@ -16771,12 +16848,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="I21" s="8"/>
       <c r="R21" s="8"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>38</v>
       </c>
@@ -16787,7 +16864,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>39</v>
       </c>
@@ -16798,7 +16875,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>40</v>
       </c>
@@ -16809,7 +16886,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>59</v>
       </c>
@@ -16825,61 +16902,90 @@
       <c r="K27" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="Q27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="R27" s="10">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="S27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>35</v>
       </c>
       <c r="I43" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="Q43" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="I44" s="8"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="Q44" s="8"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>60</v>
       </c>
       <c r="I45" s="9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="Q45" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>61</v>
       </c>
       <c r="I46" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="Q46" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="I47" s="8"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="Q47" s="8"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>48</v>
       </c>
       <c r="I48" s="9" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="Q48" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>62</v>
       </c>
       <c r="I49" s="9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="Q49" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>63</v>
       </c>
       <c r="I50" s="9" t="s">
         <v>69</v>
+      </c>
+      <c r="Q50" s="9" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/classifier stats.xlsx
+++ b/classifier stats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis\EmotionalArtGeneration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03558F63-773E-42EA-A7EA-ECD668D1D902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA910E8E-296B-4ECC-A073-C40E7B80D0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E0A16D06-83E2-4660-8622-E33D3A4B7978}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="87">
   <si>
     <t>epoch</t>
   </si>
@@ -264,6 +264,42 @@
   </si>
   <si>
     <t>weighted avg       0.92      0.93      0.92      3348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    negative       0.74      0.77      0.75       342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    positive       0.79      0.76      0.78       391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.77       733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.76      0.77      0.76       733</t>
+  </si>
+  <si>
+    <t>weighted avg       0.77      0.77      0.77       733</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> balanced cross</t>
+  </si>
+  <si>
+    <t>last FC</t>
+  </si>
+  <si>
+    <t>last FC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    negative       0.72      0.87      0.78       386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    positive       0.81      0.62      0.70       347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.76      0.74      0.74       733</t>
+  </si>
+  <si>
+    <t>weighted avg       0.76      0.75      0.74       733</t>
   </si>
 </sst>
 </file>
@@ -730,6 +766,128 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="9182100" y="304800"/>
+          <a:ext cx="2647950" cy="2800350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F10BF04-2E77-3AA0-DDD1-ED28B64C8F45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6705600" y="11811000"/>
+          <a:ext cx="2647950" cy="2800350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D1EFC0-5297-124E-2918-AE904CC7D075}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12192000" y="11811000"/>
           <a:ext cx="2647950" cy="2800350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1978,8 +2136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA79D151-D657-4AE5-82E7-3758F99CFD18}">
   <dimension ref="A1:Z1834"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="D61" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2613,7 +2771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>3</v>
       </c>
@@ -2621,7 +2779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>3</v>
       </c>
@@ -2629,7 +2787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3</v>
       </c>
@@ -2637,7 +2795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>7</v>
       </c>
@@ -2645,7 +2803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3</v>
       </c>
@@ -2653,7 +2811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3</v>
       </c>
@@ -2661,7 +2819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3</v>
       </c>
@@ -2669,7 +2827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3</v>
       </c>
@@ -2677,7 +2835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>3</v>
       </c>
@@ -2685,7 +2843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3</v>
       </c>
@@ -2693,7 +2851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>0</v>
       </c>
@@ -2701,7 +2859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>7</v>
       </c>
@@ -2709,7 +2867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>3</v>
       </c>
@@ -2717,79 +2875,137 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>3</v>
       </c>
       <c r="B78">
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="L78" t="s">
+        <v>12</v>
+      </c>
+      <c r="O78" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>81</v>
+      </c>
+      <c r="U78" t="s">
+        <v>12</v>
+      </c>
+      <c r="X78" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>3</v>
       </c>
       <c r="B79">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="L79" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="U79" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3</v>
       </c>
       <c r="B80">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="L80" s="8"/>
+      <c r="U80" s="8"/>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>7</v>
       </c>
       <c r="B81">
         <v>6</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="L81" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="U81" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3</v>
       </c>
       <c r="B82">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="L82" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="U82" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>3</v>
       </c>
       <c r="B83">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="L83" s="8"/>
+      <c r="U83" s="8"/>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>7</v>
       </c>
       <c r="B84">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="L84" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="U84" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>7</v>
       </c>
       <c r="B85">
         <v>7</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="L85" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="U85" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>3</v>
       </c>
       <c r="B86">
         <v>2</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="L86" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="U86" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>3</v>
       </c>
@@ -2797,7 +3013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>3</v>
       </c>
@@ -2805,7 +3021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>8</v>
       </c>
@@ -2813,7 +3029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>3</v>
       </c>
@@ -2821,7 +3037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>3</v>
       </c>
@@ -2829,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0</v>
       </c>
@@ -2837,7 +3053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>7</v>
       </c>
@@ -2845,7 +3061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>3</v>
       </c>
@@ -2853,7 +3069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2</v>
       </c>
@@ -2861,7 +3077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>3</v>
       </c>
@@ -16784,7 +17000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D24600-6524-494E-8E43-5FF584477608}">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>

--- a/classifier stats.xlsx
+++ b/classifier stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis\EmotionalArtGeneration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA910E8E-296B-4ECC-A073-C40E7B80D0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923DDEA2-06A0-491E-9FF0-77195104880A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E0A16D06-83E2-4660-8622-E33D3A4B7978}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E0A16D06-83E2-4660-8622-E33D3A4B7978}"/>
   </bookViews>
   <sheets>
     <sheet name="def loss" sheetId="1" r:id="rId1"/>
@@ -2136,8 +2136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA79D151-D657-4AE5-82E7-3758F99CFD18}">
   <dimension ref="A1:Z1834"/>
   <sheetViews>
-    <sheetView topLeftCell="D61" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="K7" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29:S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17000,8 +17000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D24600-6524-494E-8E43-5FF584477608}">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
